--- a/data/pca/factorExposure/factorExposure_2013-06-18.xlsx
+++ b/data/pca/factorExposure/factorExposure_2013-06-18.xlsx
@@ -14,9 +14,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
   <si>
     <t>factor1</t>
+  </si>
+  <si>
+    <t>factor2</t>
+  </si>
+  <si>
+    <t>factor3</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -683,838 +689,1462 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B104"/>
+  <dimension ref="A1:D104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B2">
-        <v>-0.002394746777544001</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+        <v>0.001803836681372149</v>
+      </c>
+      <c r="C2">
+        <v>0.03137797798672333</v>
+      </c>
+      <c r="D2">
+        <v>0.003075086633488953</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B4">
-        <v>-0.002079141971670508</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+        <v>-0.006151847964623084</v>
+      </c>
+      <c r="C4">
+        <v>0.08390859253718293</v>
+      </c>
+      <c r="D4">
+        <v>0.08017295260665315</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:2">
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B6">
-        <v>-0.0002534786865228284</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
+        <v>-0.01365168281090602</v>
+      </c>
+      <c r="C6">
+        <v>0.1066513307250688</v>
+      </c>
+      <c r="D6">
+        <v>0.03377630367170632</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B7">
-        <v>-0.001386032406570789</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
+        <v>-0.004838074170928936</v>
+      </c>
+      <c r="C7">
+        <v>0.05243209630294839</v>
+      </c>
+      <c r="D7">
+        <v>0.03883403307012349</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B8">
-        <v>0.002567418701153561</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
+        <v>-0.006029236005985372</v>
+      </c>
+      <c r="C8">
+        <v>0.03655717379272887</v>
+      </c>
+      <c r="D8">
+        <v>0.04218665303268256</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B9">
-        <v>-0.005910292693189548</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
+        <v>-0.004107474937194554</v>
+      </c>
+      <c r="C9">
+        <v>0.06860067096395217</v>
+      </c>
+      <c r="D9">
+        <v>0.07018971043909658</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B10">
-        <v>0.005205310733599308</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
+        <v>-0.005857547290804462</v>
+      </c>
+      <c r="C10">
+        <v>0.07811992541102075</v>
+      </c>
+      <c r="D10">
+        <v>-0.213835886245087</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B11">
-        <v>-0.00563855666415136</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
+        <v>-0.005019207456665611</v>
+      </c>
+      <c r="C11">
+        <v>0.07914493734506267</v>
+      </c>
+      <c r="D11">
+        <v>0.06588283377457525</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B12">
-        <v>-0.001155479859602349</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
+        <v>-0.00394140090544849</v>
+      </c>
+      <c r="C12">
+        <v>0.06330267198442154</v>
+      </c>
+      <c r="D12">
+        <v>0.04717342023992782</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B13">
-        <v>0.003716590091613827</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
+        <v>-0.00841317665919601</v>
+      </c>
+      <c r="C13">
+        <v>0.07057996813071553</v>
+      </c>
+      <c r="D13">
+        <v>0.07131834207987985</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B14">
-        <v>-0.004744388032014486</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
+        <v>-0.001983258989386011</v>
+      </c>
+      <c r="C14">
+        <v>0.04764748518721826</v>
+      </c>
+      <c r="D14">
+        <v>0.01506651494729252</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B15">
-        <v>-0.003220569103510758</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
+        <v>-0.005796083831352694</v>
+      </c>
+      <c r="C15">
+        <v>0.03758741612417856</v>
+      </c>
+      <c r="D15">
+        <v>0.04321589208038191</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B16">
-        <v>-0.003358577656520439</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
+        <v>-0.005001208426639549</v>
+      </c>
+      <c r="C16">
+        <v>0.06488036217100281</v>
+      </c>
+      <c r="D16">
+        <v>0.05026935861350353</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:2">
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:2">
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:2">
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B20">
-        <v>-0.001544995394269346</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
+        <v>-0.009267660687047935</v>
+      </c>
+      <c r="C20">
+        <v>0.06529866249643212</v>
+      </c>
+      <c r="D20">
+        <v>0.05804186642234652</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
       <c r="A21" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B21">
-        <v>0.00372320553908792</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
+        <v>-0.009804306470661784</v>
+      </c>
+      <c r="C21">
+        <v>0.0253785821462784</v>
+      </c>
+      <c r="D21">
+        <v>0.03802670738846851</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
       <c r="A22" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B22">
-        <v>-0.01664563389002155</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
+        <v>0.007248078644903222</v>
+      </c>
+      <c r="C22">
+        <v>0.08733144849150394</v>
+      </c>
+      <c r="D22">
+        <v>0.1059370873703503</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
       <c r="A23" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B23">
-        <v>-0.01685035432849893</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
+        <v>0.007013006101758788</v>
+      </c>
+      <c r="C23">
+        <v>0.08990308313790904</v>
+      </c>
+      <c r="D23">
+        <v>0.1026873871516727</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
       <c r="A24" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B24">
-        <v>-0.004477770514141517</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
+        <v>-0.004630517324797708</v>
+      </c>
+      <c r="C24">
+        <v>0.0725958903641595</v>
+      </c>
+      <c r="D24">
+        <v>0.06012585919079592</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
       <c r="A25" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B25">
-        <v>-0.005568462754607988</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
+        <v>-0.002976470822840128</v>
+      </c>
+      <c r="C25">
+        <v>0.07681140325600561</v>
+      </c>
+      <c r="D25">
+        <v>0.06453276679489846</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
       <c r="A26" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B26">
-        <v>-0.006777254635033568</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
+        <v>-0.003522316645091029</v>
+      </c>
+      <c r="C26">
+        <v>0.04159375044316569</v>
+      </c>
+      <c r="D26">
+        <v>0.02926103996800154</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
       <c r="A27" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:2">
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
       <c r="A28" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B28">
-        <v>-0.005637531764482659</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
+        <v>8.332811780659357e-05</v>
+      </c>
+      <c r="C28">
+        <v>0.1279972408579973</v>
+      </c>
+      <c r="D28">
+        <v>-0.3072225059786082</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
       <c r="A29" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B29">
-        <v>-0.001946582110085555</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
+        <v>-0.003435033219966669</v>
+      </c>
+      <c r="C29">
+        <v>0.04935606223456355</v>
+      </c>
+      <c r="D29">
+        <v>0.0199072573805751</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
       <c r="A30" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B30">
-        <v>-0.006922376017806596</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
+        <v>-0.009405649518574874</v>
+      </c>
+      <c r="C30">
+        <v>0.1362179509410356</v>
+      </c>
+      <c r="D30">
+        <v>0.1082544433541912</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
       <c r="A31" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B31">
-        <v>-0.0002350848944676246</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
+        <v>-0.006126274756660817</v>
+      </c>
+      <c r="C31">
+        <v>0.04632540052446221</v>
+      </c>
+      <c r="D31">
+        <v>0.03638381918637372</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
       <c r="A32" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B32">
-        <v>-0.001164245842040914</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
+        <v>-0.004152672556517286</v>
+      </c>
+      <c r="C32">
+        <v>0.04229419616007005</v>
+      </c>
+      <c r="D32">
+        <v>0.01504963425153153</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
       <c r="A33" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B33">
-        <v>-0.003614992876964709</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
+        <v>-0.007885759856816154</v>
+      </c>
+      <c r="C33">
+        <v>0.08259336832529339</v>
+      </c>
+      <c r="D33">
+        <v>0.07641756874489221</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
       <c r="A34" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B34">
-        <v>-0.005862492581007865</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
+        <v>-0.003678528481790162</v>
+      </c>
+      <c r="C34">
+        <v>0.05658830132455413</v>
+      </c>
+      <c r="D34">
+        <v>0.04434999846399527</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
       <c r="A35" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B35">
-        <v>-0.004100298459993689</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
+        <v>-0.005025300042825991</v>
+      </c>
+      <c r="C35">
+        <v>0.04019326548937024</v>
+      </c>
+      <c r="D35">
+        <v>0.0133087209242288</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
       <c r="A36" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B36">
-        <v>-0.00479051270010465</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
+        <v>0.001347121541280968</v>
+      </c>
+      <c r="C36">
+        <v>0.02453620202054622</v>
+      </c>
+      <c r="D36">
+        <v>0.02507977623886619</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
       <c r="A37" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:2">
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
       <c r="A38" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B38">
-        <v>0.001960610014346067</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
+        <v>-0.009499022491024651</v>
+      </c>
+      <c r="C38">
+        <v>0.03393102784475181</v>
+      </c>
+      <c r="D38">
+        <v>0.03148513360704897</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
       <c r="A39" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B39">
-        <v>-0.01451766471873061</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
+        <v>0.00102639081856311</v>
+      </c>
+      <c r="C39">
+        <v>0.1151184301024978</v>
+      </c>
+      <c r="D39">
+        <v>0.08213896708304781</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
       <c r="A40" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B40">
-        <v>-0.008733299902491026</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
+        <v>-0.002319075406663138</v>
+      </c>
+      <c r="C40">
+        <v>0.08552447917628579</v>
+      </c>
+      <c r="D40">
+        <v>0.02831535138843027</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
       <c r="A41" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B41">
-        <v>0.0002163900276564793</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
+        <v>-0.007380920114543152</v>
+      </c>
+      <c r="C41">
+        <v>0.03963299724885839</v>
+      </c>
+      <c r="D41">
+        <v>0.03913425127423618</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
       <c r="A42" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:2">
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
       <c r="A43" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B43">
-        <v>-0.002000039383120479</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
+        <v>-0.003024861324995939</v>
+      </c>
+      <c r="C43">
+        <v>0.05022907520271783</v>
+      </c>
+      <c r="D43">
+        <v>0.03182154617619012</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
       <c r="A44" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B44">
-        <v>-0.005704332875878743</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
+        <v>-0.003724583390049205</v>
+      </c>
+      <c r="C44">
+        <v>0.1069011654073551</v>
+      </c>
+      <c r="D44">
+        <v>0.08466131507170541</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
       <c r="A45" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:2">
+      <c r="C45">
+        <v>0</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
       <c r="A46" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B46">
-        <v>-0.002967833867040346</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
+        <v>-0.002476784558731771</v>
+      </c>
+      <c r="C46">
+        <v>0.03440361383695135</v>
+      </c>
+      <c r="D46">
+        <v>0.03439046344959577</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
       <c r="A47" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B47">
-        <v>-0.001934136087259883</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2">
+        <v>-0.002761357914585014</v>
+      </c>
+      <c r="C47">
+        <v>0.03827110927340517</v>
+      </c>
+      <c r="D47">
+        <v>0.03027923884732333</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
       <c r="A48" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B48">
-        <v>0.003813048776058398</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2">
+        <v>-0.006453227240925556</v>
+      </c>
+      <c r="C48">
+        <v>0.03024180482692615</v>
+      </c>
+      <c r="D48">
+        <v>0.03326758811464002</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
       <c r="A49" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B49">
-        <v>-0.01514236849721486</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2">
+        <v>-0.01416546501467623</v>
+      </c>
+      <c r="C49">
+        <v>0.1700725209035634</v>
+      </c>
+      <c r="D49">
+        <v>0.03210958862239233</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
       <c r="A50" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B50">
-        <v>-0.0004910521665505689</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2">
+        <v>-0.004057069283676312</v>
+      </c>
+      <c r="C50">
+        <v>0.04123849852520932</v>
+      </c>
+      <c r="D50">
+        <v>0.04103699562162044</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
       <c r="A51" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B51">
-        <v>0.00206610547885714</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2">
+        <v>-0.004028395983591747</v>
+      </c>
+      <c r="C51">
+        <v>0.02083135779389842</v>
+      </c>
+      <c r="D51">
+        <v>0.03374172521367366</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
       <c r="A52" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:2">
+      <c r="C52">
+        <v>0</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
       <c r="A53" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B53">
-        <v>0.0002268801035997861</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2">
+        <v>-0.02035968308885418</v>
+      </c>
+      <c r="C53">
+        <v>0.1656241790542071</v>
+      </c>
+      <c r="D53">
+        <v>0.05284508589598114</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
       <c r="A54" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B54">
-        <v>-0.0006904951196641996</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2">
+        <v>-0.008548450846209435</v>
+      </c>
+      <c r="C54">
+        <v>0.05501144656297277</v>
+      </c>
+      <c r="D54">
+        <v>0.04175424113287837</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
       <c r="A55" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B55">
-        <v>-0.005892288530447713</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2">
+        <v>-0.009735621384242615</v>
+      </c>
+      <c r="C55">
+        <v>0.1053446348328642</v>
+      </c>
+      <c r="D55">
+        <v>0.05373367414605745</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
       <c r="A56" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B56">
-        <v>0.002228994240074519</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2">
+        <v>-0.01946213151415165</v>
+      </c>
+      <c r="C56">
+        <v>0.1713709706620165</v>
+      </c>
+      <c r="D56">
+        <v>0.0515966890569104</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
       <c r="A57" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:2">
+      <c r="C57">
+        <v>0</v>
+      </c>
+      <c r="D57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
       <c r="A58" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B58">
-        <v>-0.008200858968713374</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2">
+        <v>-0.01979395172120986</v>
+      </c>
+      <c r="C58">
+        <v>0.1005938597571237</v>
+      </c>
+      <c r="D58">
+        <v>0.0788804537666814</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
       <c r="A59" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B59">
-        <v>-0.007742312365867064</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2">
+        <v>-0.008810110684919683</v>
+      </c>
+      <c r="C59">
+        <v>0.1679694610933878</v>
+      </c>
+      <c r="D59">
+        <v>-0.2743700889559196</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
       <c r="A60" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B60">
-        <v>-0.007119739143040885</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2">
+        <v>-0.02316363285498245</v>
+      </c>
+      <c r="C60">
+        <v>0.2209148095263294</v>
+      </c>
+      <c r="D60">
+        <v>0.02770840157681525</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
       <c r="A61" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B61">
-        <v>-0.01700786235678785</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2">
+        <v>0.002088107312476318</v>
+      </c>
+      <c r="C61">
+        <v>0.09552057002453446</v>
+      </c>
+      <c r="D61">
+        <v>0.06183889515419017</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
       <c r="A62" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B62">
-        <v>0.1872813310319608</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2">
+        <v>-0.1444371258845416</v>
+      </c>
+      <c r="C62">
+        <v>0.07159620217183529</v>
+      </c>
+      <c r="D62">
+        <v>0.05042125202943274</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
       <c r="A63" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B63">
-        <v>-0.002796046534159021</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2">
+        <v>-0.006561620995825783</v>
+      </c>
+      <c r="C63">
+        <v>0.05835059535765836</v>
+      </c>
+      <c r="D63">
+        <v>0.02816069497172978</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
       <c r="A64" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B64">
-        <v>-0.006480294402198578</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2">
+        <v>-0.01518619090443264</v>
+      </c>
+      <c r="C64">
+        <v>0.09957499372750885</v>
+      </c>
+      <c r="D64">
+        <v>0.06587110356113693</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
       <c r="A65" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B65">
-        <v>0.0004136039713390175</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2">
+        <v>-0.01708516074901197</v>
+      </c>
+      <c r="C65">
+        <v>0.111960198820193</v>
+      </c>
+      <c r="D65">
+        <v>0.03066411493415843</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
       <c r="A66" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B66">
-        <v>-0.01119468496985731</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2">
+        <v>-0.01225975860524781</v>
+      </c>
+      <c r="C66">
+        <v>0.1530272920656494</v>
+      </c>
+      <c r="D66">
+        <v>0.1196399592185593</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
       <c r="A67" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B67">
-        <v>0.002182919323030092</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2">
+        <v>-0.01529417652430887</v>
+      </c>
+      <c r="C67">
+        <v>0.06281322373215298</v>
+      </c>
+      <c r="D67">
+        <v>0.04220954098534467</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
       <c r="A68" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B68">
-        <v>-0.00881028210233285</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2">
+        <v>-0.001320718853679312</v>
+      </c>
+      <c r="C68">
+        <v>0.1120203646849244</v>
+      </c>
+      <c r="D68">
+        <v>-0.2628103853503508</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
       <c r="A69" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B69">
-        <v>-0.003359247564904802</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2">
+        <v>-0.005120794331780396</v>
+      </c>
+      <c r="C69">
+        <v>0.04580993270567863</v>
+      </c>
+      <c r="D69">
+        <v>0.04788790037131894</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
       <c r="A70" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B70">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2">
+        <v>-0.001688127210757858</v>
+      </c>
+      <c r="C70">
+        <v>0.002074208075366215</v>
+      </c>
+      <c r="D70">
+        <v>0.002280644369410979</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
       <c r="A71" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B71">
-        <v>-0.004016560029704234</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2">
+        <v>-0.006172356679641401</v>
+      </c>
+      <c r="C71">
+        <v>0.1144391056279328</v>
+      </c>
+      <c r="D71">
+        <v>-0.2808536319786814</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
       <c r="A72" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B72">
-        <v>-0.009031008907728009</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2">
+        <v>-0.01528762931747073</v>
+      </c>
+      <c r="C72">
+        <v>0.1500040505559131</v>
+      </c>
+      <c r="D72">
+        <v>0.02765373713568911</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
       <c r="A73" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B73">
-        <v>-0.01424577016845176</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2">
+        <v>-0.03108921669593582</v>
+      </c>
+      <c r="C73">
+        <v>0.2833049542707264</v>
+      </c>
+      <c r="D73">
+        <v>0.0486070654104198</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
       <c r="A74" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B74">
-        <v>-0.006039543100185215</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2">
+        <v>-0.001969733328085656</v>
+      </c>
+      <c r="C74">
+        <v>0.1028503641280631</v>
+      </c>
+      <c r="D74">
+        <v>0.04350785454799488</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
       <c r="A75" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B75">
-        <v>-0.00767276772075466</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2">
+        <v>-0.01070302521475405</v>
+      </c>
+      <c r="C75">
+        <v>0.1308381320872316</v>
+      </c>
+      <c r="D75">
+        <v>0.04293219117876559</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
       <c r="A76" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B76">
-        <v>0.01119262682003878</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2">
+        <v>-0.02113470335993893</v>
+      </c>
+      <c r="C76">
+        <v>0.1444631752934281</v>
+      </c>
+      <c r="D76">
+        <v>0.07312806097168151</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
       <c r="A77" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B77">
-        <v>0.001828944767069692</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2">
+        <v>-0.02317861182209614</v>
+      </c>
+      <c r="C77">
+        <v>0.1294562702446953</v>
+      </c>
+      <c r="D77">
+        <v>0.06629931535912158</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
       <c r="A78" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B78">
-        <v>0.0007220995457153836</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2">
+        <v>-0.01471821750351843</v>
+      </c>
+      <c r="C78">
+        <v>0.09059023783557731</v>
+      </c>
+      <c r="D78">
+        <v>0.0677904262562473</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
       <c r="A79" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B79">
-        <v>0.02621069132354846</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2">
+        <v>-0.03661410834304475</v>
+      </c>
+      <c r="C79">
+        <v>0.1560298680087564</v>
+      </c>
+      <c r="D79">
+        <v>0.03742850823310038</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
       <c r="A80" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B80">
-        <v>0.00503519512471638</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2">
+        <v>-0.01090236755515548</v>
+      </c>
+      <c r="C80">
+        <v>0.04189341749124646</v>
+      </c>
+      <c r="D80">
+        <v>0.03502378572493561</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
       <c r="A81" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B81">
-        <v>-0.0001825937799506352</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2">
+        <v>-0.01472250425649931</v>
+      </c>
+      <c r="C81">
+        <v>0.120959842401311</v>
+      </c>
+      <c r="D81">
+        <v>0.06129070350213044</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
       <c r="A82" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B82">
-        <v>0.006702904561142207</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2">
+        <v>-0.01907621519318699</v>
+      </c>
+      <c r="C82">
+        <v>0.1404494020660737</v>
+      </c>
+      <c r="D82">
+        <v>0.04886304648516394</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
       <c r="A83" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B83">
-        <v>-0.007079688806781398</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2">
+        <v>-0.009682481167676662</v>
+      </c>
+      <c r="C83">
+        <v>0.05717164147616501</v>
+      </c>
+      <c r="D83">
+        <v>0.04663048561999206</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
       <c r="A84" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B84">
-        <v>0.01281720275112654</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2">
+        <v>-0.01217238240070429</v>
+      </c>
+      <c r="C84">
+        <v>0.03014125923714355</v>
+      </c>
+      <c r="D84">
+        <v>8.957811636965739e-05</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
       <c r="A85" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B85">
-        <v>0.01486571725337071</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2">
+        <v>-0.02826056258991095</v>
+      </c>
+      <c r="C85">
+        <v>0.1290575179982494</v>
+      </c>
+      <c r="D85">
+        <v>0.05403172034250599</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
       <c r="A86" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B86">
-        <v>-0.004433959449262379</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2">
+        <v>-0.004921842935738637</v>
+      </c>
+      <c r="C86">
+        <v>0.04663424078100432</v>
+      </c>
+      <c r="D86">
+        <v>0.02179727107787169</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
       <c r="A87" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B87">
-        <v>-0.007923667219534634</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2">
+        <v>-0.01002739483462841</v>
+      </c>
+      <c r="C87">
+        <v>0.1267422046841782</v>
+      </c>
+      <c r="D87">
+        <v>0.07999563043050702</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
       <c r="A88" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B88">
-        <v>-0.01470433552621942</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2">
+        <v>0.003028027994924924</v>
+      </c>
+      <c r="C88">
+        <v>0.07002247715827541</v>
+      </c>
+      <c r="D88">
+        <v>0.02135779288170626</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
       <c r="A89" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B89">
-        <v>-0.0157326989868875</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2">
+        <v>0.002047000921241736</v>
+      </c>
+      <c r="C89">
+        <v>0.1636459763279392</v>
+      </c>
+      <c r="D89">
+        <v>-0.3424581390502973</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
       <c r="A90" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B90">
-        <v>-0.002473244344612563</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2">
+        <v>-0.007411936418040416</v>
+      </c>
+      <c r="C90">
+        <v>0.1471441982979879</v>
+      </c>
+      <c r="D90">
+        <v>-0.3153710703946516</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
       <c r="A91" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B91">
-        <v>0.0005840500580016134</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2">
+        <v>-0.009954844163400716</v>
+      </c>
+      <c r="C91">
+        <v>0.1021997904502841</v>
+      </c>
+      <c r="D91">
+        <v>0.02420996765924513</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
       <c r="A92" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B92">
-        <v>-0.01631211890072977</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2">
+        <v>-0.0007027931731116293</v>
+      </c>
+      <c r="C92">
+        <v>0.154050229022116</v>
+      </c>
+      <c r="D92">
+        <v>-0.3265301385531484</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
       <c r="A93" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B93">
-        <v>-0.001650158288384373</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2">
+        <v>-0.004864120814041074</v>
+      </c>
+      <c r="C93">
+        <v>0.1270537801647106</v>
+      </c>
+      <c r="D93">
+        <v>-0.3110452394593234</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
       <c r="A94" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B94">
-        <v>0.001653322555343953</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2">
+        <v>-0.02198668450695728</v>
+      </c>
+      <c r="C94">
+        <v>0.1558313310878663</v>
+      </c>
+      <c r="D94">
+        <v>0.03590398895887623</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
       <c r="A95" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B95">
-        <v>-0.007501537729729398</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2">
+        <v>-0.01636278397369128</v>
+      </c>
+      <c r="C95">
+        <v>0.1220767178012172</v>
+      </c>
+      <c r="D95">
+        <v>0.06641400597973049</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
       <c r="A96" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:2">
+      <c r="C96">
+        <v>0</v>
+      </c>
+      <c r="D96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
       <c r="A97" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B97">
-        <v>-0.004085788450429584</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2">
+        <v>-0.0333164926777739</v>
+      </c>
+      <c r="C97">
+        <v>0.1751025697291205</v>
+      </c>
+      <c r="D97">
+        <v>0.0427835762148411</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
       <c r="A98" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B98">
-        <v>-0.007938855549514894</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2">
+        <v>-0.0356019824281321</v>
+      </c>
+      <c r="C98">
+        <v>0.25836265441955</v>
+      </c>
+      <c r="D98">
+        <v>0.04164174395434226</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
       <c r="A99" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B99">
-        <v>0.9797251006425194</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2">
+        <v>-0.9826144122732331</v>
+      </c>
+      <c r="C99">
+        <v>-0.1087930802049328</v>
+      </c>
+      <c r="D99">
+        <v>-0.03354790785379526</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
       <c r="A100" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:2">
+      <c r="C100">
+        <v>0</v>
+      </c>
+      <c r="D100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
       <c r="A101" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B101">
-        <v>-0.001901237265539014</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2">
+        <v>-0.003480433891293073</v>
+      </c>
+      <c r="C101">
+        <v>0.04943532591589329</v>
+      </c>
+      <c r="D101">
+        <v>0.01994356843153677</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
       <c r="A102" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:2">
+      <c r="C102">
+        <v>0</v>
+      </c>
+      <c r="D102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
       <c r="A103" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:2">
+      <c r="C103">
+        <v>0</v>
+      </c>
+      <c r="D103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
       <c r="A104" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B104">
+        <v>0</v>
+      </c>
+      <c r="C104">
+        <v>0</v>
+      </c>
+      <c r="D104">
         <v>0</v>
       </c>
     </row>
